--- a/data/SmeltLabData2024.xlsx
+++ b/data/SmeltLabData2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531714B4-A319-4A2E-B6B4-E1CDD9FC9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E5338B-4E2C-40AE-9082-F637C6403406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{22D8BF8C-A919-4177-828B-F1ABD77E3DFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="288">
   <si>
     <t>Location</t>
   </si>
@@ -402,19 +402,524 @@
   </si>
   <si>
     <t>C3N20</t>
+  </si>
+  <si>
+    <t>FCCL</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>FCCLN12</t>
+  </si>
+  <si>
+    <t>FCCLN18</t>
+  </si>
+  <si>
+    <t>FCCLN46</t>
+  </si>
+  <si>
+    <t>FCCLN3</t>
+  </si>
+  <si>
+    <t>Missing tail 61+mm</t>
+  </si>
+  <si>
+    <t>FCCLN26</t>
+  </si>
+  <si>
+    <t>FCCLN16</t>
+  </si>
+  <si>
+    <t>Full testes</t>
+  </si>
+  <si>
+    <t>FCCLN7</t>
+  </si>
+  <si>
+    <t>FCCLN10</t>
+  </si>
+  <si>
+    <t>FCCLN33</t>
+  </si>
+  <si>
+    <t>FCCLN9</t>
+  </si>
+  <si>
+    <t>FCCLN15</t>
+  </si>
+  <si>
+    <t>FCCLN37</t>
+  </si>
+  <si>
+    <t>FCCLN29</t>
+  </si>
+  <si>
+    <t>FCCLN6</t>
+  </si>
+  <si>
+    <t>Broken tail, FL estimated</t>
+  </si>
+  <si>
+    <t>FCCLN41</t>
+  </si>
+  <si>
+    <t>FCCLN38</t>
+  </si>
+  <si>
+    <t>FCCLN31</t>
+  </si>
+  <si>
+    <t>FCCLN20</t>
+  </si>
+  <si>
+    <t>FCCLN17</t>
+  </si>
+  <si>
+    <t>Likely female</t>
+  </si>
+  <si>
+    <t>FCCLN43</t>
+  </si>
+  <si>
+    <t>FCCLN36</t>
+  </si>
+  <si>
+    <t>FCCLN48</t>
+  </si>
+  <si>
+    <t>FCCLN19</t>
+  </si>
+  <si>
+    <t>FCCLN25</t>
+  </si>
+  <si>
+    <t>FCCLN50</t>
+  </si>
+  <si>
+    <t>Pre-deployment</t>
+  </si>
+  <si>
+    <t>PREN14</t>
+  </si>
+  <si>
+    <t>PREN10</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>PREN7</t>
+  </si>
+  <si>
+    <t>PREN11</t>
+  </si>
+  <si>
+    <t>PREN6</t>
+  </si>
+  <si>
+    <t>PREN8</t>
+  </si>
+  <si>
+    <t>PREN3</t>
+  </si>
+  <si>
+    <t>No tail</t>
+  </si>
+  <si>
+    <t>PREN4</t>
+  </si>
+  <si>
+    <t>PREN13</t>
+  </si>
+  <si>
+    <t>PREN15</t>
+  </si>
+  <si>
+    <t>PREN9</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>PREN12</t>
+  </si>
+  <si>
+    <t>PREN5</t>
+  </si>
+  <si>
+    <t>PREN1</t>
+  </si>
+  <si>
+    <t>PREN2</t>
+  </si>
+  <si>
+    <t>PREN17</t>
+  </si>
+  <si>
+    <t>Montezuma</t>
+  </si>
+  <si>
+    <t>C7N45</t>
+  </si>
+  <si>
+    <t>C7N30</t>
+  </si>
+  <si>
+    <t>C5N35</t>
+  </si>
+  <si>
+    <t>Tail shattered, FL estimated</t>
+  </si>
+  <si>
+    <t>C7N46</t>
+  </si>
+  <si>
+    <t>C6N18</t>
+  </si>
+  <si>
+    <t>C5N4</t>
+  </si>
+  <si>
+    <t>1/2 tail, FL estimated</t>
+  </si>
+  <si>
+    <t>C5N11</t>
+  </si>
+  <si>
+    <t>C6N24</t>
+  </si>
+  <si>
+    <t>C7N44</t>
+  </si>
+  <si>
+    <t>C6N20</t>
+  </si>
+  <si>
+    <t>C6N16</t>
+  </si>
+  <si>
+    <t>C7N11</t>
+  </si>
+  <si>
+    <t>C6N11</t>
+  </si>
+  <si>
+    <t>C6N17</t>
+  </si>
+  <si>
+    <t>C8N20</t>
+  </si>
+  <si>
+    <t>C8N1</t>
+  </si>
+  <si>
+    <t>C7N47</t>
+  </si>
+  <si>
+    <t>C6N2</t>
+  </si>
+  <si>
+    <t>C6N10</t>
+  </si>
+  <si>
+    <t>C6N12</t>
+  </si>
+  <si>
+    <t>C6N22</t>
+  </si>
+  <si>
+    <t>C6N3</t>
+  </si>
+  <si>
+    <t>C5N15</t>
+  </si>
+  <si>
+    <t>C5N26</t>
+  </si>
+  <si>
+    <t>C5N49</t>
+  </si>
+  <si>
+    <t>C6N23</t>
+  </si>
+  <si>
+    <t>C6N6</t>
+  </si>
+  <si>
+    <t>C6N13</t>
+  </si>
+  <si>
+    <t>C6N5</t>
+  </si>
+  <si>
+    <t>C6N9</t>
+  </si>
+  <si>
+    <t>C6N29</t>
+  </si>
+  <si>
+    <t>C6N8</t>
+  </si>
+  <si>
+    <t>C7N42</t>
+  </si>
+  <si>
+    <t>C5N22</t>
+  </si>
+  <si>
+    <t>C6N15</t>
+  </si>
+  <si>
+    <t>C5N46</t>
+  </si>
+  <si>
+    <t>C5N37</t>
+  </si>
+  <si>
+    <t>C6N26</t>
+  </si>
+  <si>
+    <t>C6N14</t>
+  </si>
+  <si>
+    <t>C8N9</t>
+  </si>
+  <si>
+    <t>C6N21</t>
+  </si>
+  <si>
+    <t>C8N6</t>
+  </si>
+  <si>
+    <t>C5N31</t>
+  </si>
+  <si>
+    <t>Curved tail</t>
+  </si>
+  <si>
+    <t>C6N7</t>
+  </si>
+  <si>
+    <t>C5N23</t>
+  </si>
+  <si>
+    <t>C5N14</t>
+  </si>
+  <si>
+    <t>Bent tail</t>
+  </si>
+  <si>
+    <t>C5N29</t>
+  </si>
+  <si>
+    <t>C6N1</t>
+  </si>
+  <si>
+    <t>C5N17</t>
+  </si>
+  <si>
+    <t>C5N20</t>
+  </si>
+  <si>
+    <t>C5N43</t>
+  </si>
+  <si>
+    <t>C8N24</t>
+  </si>
+  <si>
+    <t>C8N4</t>
+  </si>
+  <si>
+    <t>No Tail</t>
+  </si>
+  <si>
+    <t>C5N21</t>
+  </si>
+  <si>
+    <t>C5N16</t>
+  </si>
+  <si>
+    <t>C6N19</t>
+  </si>
+  <si>
+    <t>C5N28</t>
+  </si>
+  <si>
+    <t>C5N25</t>
+  </si>
+  <si>
+    <t>C5N13</t>
+  </si>
+  <si>
+    <t>Broken tail</t>
+  </si>
+  <si>
+    <t>C5N27</t>
+  </si>
+  <si>
+    <t>C8N14</t>
+  </si>
+  <si>
+    <t>C5N42</t>
+  </si>
+  <si>
+    <t>C5N24</t>
+  </si>
+  <si>
+    <t>C5N12</t>
+  </si>
+  <si>
+    <t>C7N43</t>
+  </si>
+  <si>
+    <t>C8N18</t>
+  </si>
+  <si>
+    <t>C8N22</t>
+  </si>
+  <si>
+    <t>C7N10</t>
+  </si>
+  <si>
+    <t>Dead, Broken tail</t>
+  </si>
+  <si>
+    <t>C7N20</t>
+  </si>
+  <si>
+    <t>C7N7</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>C5N36</t>
+  </si>
+  <si>
+    <t>C8N13</t>
+  </si>
+  <si>
+    <t>C8N8</t>
+  </si>
+  <si>
+    <t>C8N16</t>
+  </si>
+  <si>
+    <t>C8N17</t>
+  </si>
+  <si>
+    <t>C8N19</t>
+  </si>
+  <si>
+    <t>C8N5</t>
+  </si>
+  <si>
+    <t>C8N15</t>
+  </si>
+  <si>
+    <t>C8N10</t>
+  </si>
+  <si>
+    <t>C8N3</t>
+  </si>
+  <si>
+    <t>C8N12</t>
+  </si>
+  <si>
+    <t>C8N23</t>
+  </si>
+  <si>
+    <t>C8N7</t>
+  </si>
+  <si>
+    <t>C8N2</t>
+  </si>
+  <si>
+    <t>C8N26</t>
+  </si>
+  <si>
+    <t>2nd pull</t>
+  </si>
+  <si>
+    <t>C8N21</t>
+  </si>
+  <si>
+    <t>C8N29</t>
+  </si>
+  <si>
+    <t>C7N16</t>
+  </si>
+  <si>
+    <t>C7N15</t>
+  </si>
+  <si>
+    <t>C7N8</t>
+  </si>
+  <si>
+    <t>C7N36</t>
+  </si>
+  <si>
+    <t>C7N5</t>
+  </si>
+  <si>
+    <t>C7N26</t>
+  </si>
+  <si>
+    <t>C7N21</t>
+  </si>
+  <si>
+    <t>C7N34</t>
+  </si>
+  <si>
+    <t>C7N14</t>
+  </si>
+  <si>
+    <t>Rough looking</t>
+  </si>
+  <si>
+    <t>C7N2</t>
+  </si>
+  <si>
+    <t>C7N35</t>
+  </si>
+  <si>
+    <t>C7N22</t>
+  </si>
+  <si>
+    <t>C7N6</t>
+  </si>
+  <si>
+    <t>C7N4</t>
+  </si>
+  <si>
+    <t>C7N33</t>
+  </si>
+  <si>
+    <t>C8N25</t>
+  </si>
+  <si>
+    <t>C8N11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,8 +942,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91FDF19-4F53-4A74-9F29-9FB393960F4A}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3132,24 +3638,2803 @@
         <v>16</v>
       </c>
     </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107">
+        <v>61</v>
+      </c>
+      <c r="E107">
+        <v>1.52</v>
+      </c>
+      <c r="F107">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108">
+        <v>59</v>
+      </c>
+      <c r="E108">
+        <v>1.2848999999999999</v>
+      </c>
+      <c r="F108">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109">
+        <v>51</v>
+      </c>
+      <c r="E109">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="F109">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110">
+        <v>61</v>
+      </c>
+      <c r="E110">
+        <v>1.8263</v>
+      </c>
+      <c r="F110">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111">
+        <v>67</v>
+      </c>
+      <c r="E111">
+        <v>2.1926000000000001</v>
+      </c>
+      <c r="F111">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112">
+        <v>58</v>
+      </c>
+      <c r="E112">
+        <v>1.2231000000000001</v>
+      </c>
+      <c r="F112">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>132</v>
+      </c>
+      <c r="D113">
+        <v>63</v>
+      </c>
+      <c r="E113">
+        <v>1.512</v>
+      </c>
+      <c r="F113">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114">
+        <v>63</v>
+      </c>
+      <c r="E114">
+        <v>1.6349</v>
+      </c>
+      <c r="F114">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115">
+        <v>59</v>
+      </c>
+      <c r="E115">
+        <v>1.3242</v>
+      </c>
+      <c r="F115">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116">
+        <v>46</v>
+      </c>
+      <c r="E116">
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="F116">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117">
+        <v>61</v>
+      </c>
+      <c r="E117">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="F117">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118">
+        <v>60</v>
+      </c>
+      <c r="E118">
+        <v>1.4681</v>
+      </c>
+      <c r="F118">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119">
+        <v>58</v>
+      </c>
+      <c r="E119">
+        <v>1.4025000000000001</v>
+      </c>
+      <c r="F119">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120">
+        <v>55</v>
+      </c>
+      <c r="E120">
+        <v>1.2376</v>
+      </c>
+      <c r="F120">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121">
+        <v>54</v>
+      </c>
+      <c r="E121">
+        <v>1.1588000000000001</v>
+      </c>
+      <c r="F121">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122">
+        <v>65</v>
+      </c>
+      <c r="E122">
+        <v>2.0310999999999999</v>
+      </c>
+      <c r="F122">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123">
+        <v>67</v>
+      </c>
+      <c r="E123">
+        <v>2.8944000000000001</v>
+      </c>
+      <c r="F123">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124">
+        <v>61</v>
+      </c>
+      <c r="E124">
+        <v>1.2786999999999999</v>
+      </c>
+      <c r="F124">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125">
+        <v>55</v>
+      </c>
+      <c r="E125">
+        <v>1.0693999999999999</v>
+      </c>
+      <c r="F125">
+        <v>1.03E-2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126">
+        <v>69</v>
+      </c>
+      <c r="E126">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="F126">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127">
+        <v>53</v>
+      </c>
+      <c r="E127">
+        <v>1.2298</v>
+      </c>
+      <c r="F127">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128">
+        <v>62</v>
+      </c>
+      <c r="E128">
+        <v>1.5725</v>
+      </c>
+      <c r="F128">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129">
+        <v>59</v>
+      </c>
+      <c r="E129">
+        <v>1.4502999999999999</v>
+      </c>
+      <c r="F129">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130">
+        <v>56</v>
+      </c>
+      <c r="E130">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="F130">
+        <v>1.21E-2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131">
+        <v>53</v>
+      </c>
+      <c r="E131">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="F131">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132">
+        <v>43</v>
+      </c>
+      <c r="E132">
+        <v>0.60531999999999997</v>
+      </c>
+      <c r="F132">
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="H132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133">
+        <v>45</v>
+      </c>
+      <c r="E133">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="F133">
+        <v>5.4799999999999996E-3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" t="s">
+        <v>157</v>
+      </c>
+      <c r="D134">
+        <v>53</v>
+      </c>
+      <c r="E134">
+        <v>0.90139000000000002</v>
+      </c>
+      <c r="F134">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135">
+        <v>53</v>
+      </c>
+      <c r="E135">
+        <v>1.0637000000000001</v>
+      </c>
+      <c r="F135">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136">
+        <v>54</v>
+      </c>
+      <c r="E136">
+        <v>0.98285</v>
+      </c>
+      <c r="F136">
+        <v>1.035E-2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137">
+        <v>48</v>
+      </c>
+      <c r="E137">
+        <v>0.63534999999999997</v>
+      </c>
+      <c r="F137">
+        <v>2.3900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15">
+      <c r="A138" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138">
+        <v>56</v>
+      </c>
+      <c r="E138">
+        <v>1.7080200000000001</v>
+      </c>
+      <c r="F138">
+        <v>2.0639999999999999E-2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15">
+      <c r="A139" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139">
+        <v>54</v>
+      </c>
+      <c r="E139">
+        <v>1.05345</v>
+      </c>
+      <c r="F139">
+        <v>1.225E-2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15">
+      <c r="A140" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140">
+        <v>53</v>
+      </c>
+      <c r="E140">
+        <v>0.87214000000000003</v>
+      </c>
+      <c r="F140">
+        <v>7.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15">
+      <c r="A141" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141">
+        <v>54</v>
+      </c>
+      <c r="E141">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="F141">
+        <v>1.042E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142">
+        <v>49</v>
+      </c>
+      <c r="E142">
+        <v>0.75702999999999998</v>
+      </c>
+      <c r="F142">
+        <v>9.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15">
+      <c r="A143" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143">
+        <v>47</v>
+      </c>
+      <c r="E143">
+        <v>0.70147000000000004</v>
+      </c>
+      <c r="F143">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15">
+      <c r="A144" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+      <c r="E144">
+        <v>0.65695999999999999</v>
+      </c>
+      <c r="F144">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145">
+        <v>64</v>
+      </c>
+      <c r="E145">
+        <v>2.0045099999999998</v>
+      </c>
+      <c r="F145">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15">
+      <c r="A146" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146">
+        <v>51</v>
+      </c>
+      <c r="E146">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="F146">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15">
+      <c r="A147" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147">
+        <v>57</v>
+      </c>
+      <c r="E147">
+        <v>1.1359600000000001</v>
+      </c>
+      <c r="F147">
+        <v>1.227E-2</v>
+      </c>
+      <c r="H147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15">
+      <c r="A148" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" t="s">
+        <v>172</v>
+      </c>
+      <c r="D148">
+        <v>59</v>
+      </c>
+      <c r="E148">
+        <v>1.30444</v>
+      </c>
+      <c r="F148">
+        <v>1.248E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" t="s">
+        <v>174</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F149">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="E150">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="F150">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" t="s">
+        <v>176</v>
+      </c>
+      <c r="D151">
+        <v>62</v>
+      </c>
+      <c r="E151">
+        <v>1.4318</v>
+      </c>
+      <c r="F151">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="E152">
+        <v>1.1955</v>
+      </c>
+      <c r="F152">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153">
+        <v>41</v>
+      </c>
+      <c r="E153">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="F153">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>180</v>
+      </c>
+      <c r="D154">
+        <v>55</v>
+      </c>
+      <c r="E154">
+        <v>0.9718</v>
+      </c>
+      <c r="F154">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155">
+        <v>61</v>
+      </c>
+      <c r="E155">
+        <v>1.7482</v>
+      </c>
+      <c r="F155">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" t="s">
+        <v>183</v>
+      </c>
+      <c r="D156">
+        <v>50</v>
+      </c>
+      <c r="E156">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="F156">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="F157">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" t="s">
+        <v>185</v>
+      </c>
+      <c r="D158">
+        <v>54</v>
+      </c>
+      <c r="E158">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="F158">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159">
+        <v>54</v>
+      </c>
+      <c r="E159">
+        <v>0.877</v>
+      </c>
+      <c r="F159">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160">
+        <v>55</v>
+      </c>
+      <c r="E160">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F160">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" t="s">
+        <v>188</v>
+      </c>
+      <c r="D161">
+        <v>50</v>
+      </c>
+      <c r="E161">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="F161">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" t="s">
+        <v>189</v>
+      </c>
+      <c r="D162">
+        <v>44</v>
+      </c>
+      <c r="E162">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="F162">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" t="s">
+        <v>190</v>
+      </c>
+      <c r="D163">
+        <v>46</v>
+      </c>
+      <c r="E163">
+        <v>0.6048</v>
+      </c>
+      <c r="F163">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164">
+        <v>59</v>
+      </c>
+      <c r="E164">
+        <v>1.4622999999999999</v>
+      </c>
+      <c r="F164">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165">
+        <v>45</v>
+      </c>
+      <c r="E165">
+        <v>0.5585</v>
+      </c>
+      <c r="F165">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166">
+        <v>57</v>
+      </c>
+      <c r="E166">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F166">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" t="s">
+        <v>194</v>
+      </c>
+      <c r="D167">
+        <v>66</v>
+      </c>
+      <c r="E167">
+        <v>1.6818</v>
+      </c>
+      <c r="F167">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" t="s">
+        <v>195</v>
+      </c>
+      <c r="D168">
+        <v>56</v>
+      </c>
+      <c r="E168">
+        <v>1.2882</v>
+      </c>
+      <c r="F168">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169">
+        <v>54</v>
+      </c>
+      <c r="E169">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="F169">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170">
+        <v>50</v>
+      </c>
+      <c r="E170">
+        <v>0.6542</v>
+      </c>
+      <c r="F170">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" t="s">
+        <v>198</v>
+      </c>
+      <c r="D171">
+        <v>54</v>
+      </c>
+      <c r="E171">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F171">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D172">
+        <v>52</v>
+      </c>
+      <c r="E172">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="F172">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173">
+        <v>50</v>
+      </c>
+      <c r="E173">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="F173">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H173" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174">
+        <v>56</v>
+      </c>
+      <c r="E174">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="F174">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>202</v>
+      </c>
+      <c r="D175">
+        <v>52</v>
+      </c>
+      <c r="E175">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="F175">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176" t="s">
+        <v>203</v>
+      </c>
+      <c r="D176">
+        <v>47</v>
+      </c>
+      <c r="E176">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="F176">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177">
+        <v>45</v>
+      </c>
+      <c r="E177">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="F177">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178">
+        <v>59</v>
+      </c>
+      <c r="E178">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="F178">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>173</v>
+      </c>
+      <c r="C179" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179">
+        <v>55</v>
+      </c>
+      <c r="E179">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="F179">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>173</v>
+      </c>
+      <c r="C180" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180">
+        <v>53</v>
+      </c>
+      <c r="E180">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="F180">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181">
+        <v>45</v>
+      </c>
+      <c r="E181">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="F181">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>173</v>
+      </c>
+      <c r="C182" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182">
+        <v>59</v>
+      </c>
+      <c r="E182">
+        <v>1.3757999999999999</v>
+      </c>
+      <c r="F182">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>173</v>
+      </c>
+      <c r="C183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183">
+        <v>51</v>
+      </c>
+      <c r="E183">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="F183">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="H183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>173</v>
+      </c>
+      <c r="C184" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184">
+        <v>62</v>
+      </c>
+      <c r="E184">
+        <v>1.3052999999999999</v>
+      </c>
+      <c r="F184">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>173</v>
+      </c>
+      <c r="C185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185">
+        <v>59</v>
+      </c>
+      <c r="E185">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="F185">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" t="s">
+        <v>213</v>
+      </c>
+      <c r="D186">
+        <v>39</v>
+      </c>
+      <c r="E186">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="F186">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187">
+        <v>55</v>
+      </c>
+      <c r="E187">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="F187">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>173</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188">
+        <v>43</v>
+      </c>
+      <c r="E188">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="F188">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H188" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>173</v>
+      </c>
+      <c r="C189" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189">
+        <v>46</v>
+      </c>
+      <c r="E189">
+        <v>0.4415</v>
+      </c>
+      <c r="F189">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>173</v>
+      </c>
+      <c r="C190" t="s">
+        <v>217</v>
+      </c>
+      <c r="D190">
+        <v>53</v>
+      </c>
+      <c r="E190">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F190">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" t="s">
+        <v>218</v>
+      </c>
+      <c r="D191">
+        <v>43</v>
+      </c>
+      <c r="E191">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F191">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+      <c r="D192">
+        <v>56</v>
+      </c>
+      <c r="E192">
+        <v>1.0104</v>
+      </c>
+      <c r="F192">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>173</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193">
+        <v>60</v>
+      </c>
+      <c r="E193">
+        <v>1.5193000000000001</v>
+      </c>
+      <c r="F193">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>173</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194">
+        <v>46</v>
+      </c>
+      <c r="E194">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="F194">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+      <c r="C195" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195">
+        <v>47</v>
+      </c>
+      <c r="E195">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="F195">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196">
+        <v>50</v>
+      </c>
+      <c r="E196">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="F196">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>173</v>
+      </c>
+      <c r="C197" t="s">
+        <v>226</v>
+      </c>
+      <c r="D197">
+        <v>56</v>
+      </c>
+      <c r="E197">
+        <v>0.7651</v>
+      </c>
+      <c r="F197">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>173</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+      <c r="D198">
+        <v>52</v>
+      </c>
+      <c r="E198">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F198">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>173</v>
+      </c>
+      <c r="C199" t="s">
+        <v>228</v>
+      </c>
+      <c r="D199">
+        <v>55</v>
+      </c>
+      <c r="E199">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="F199">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" t="s">
+        <v>229</v>
+      </c>
+      <c r="D200">
+        <v>46</v>
+      </c>
+      <c r="E200">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F200">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>173</v>
+      </c>
+      <c r="C201" t="s">
+        <v>230</v>
+      </c>
+      <c r="D201">
+        <v>55</v>
+      </c>
+      <c r="E201">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="F201">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" t="s">
+        <v>232</v>
+      </c>
+      <c r="D202">
+        <v>54</v>
+      </c>
+      <c r="E202">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="F202">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>173</v>
+      </c>
+      <c r="C203" t="s">
+        <v>233</v>
+      </c>
+      <c r="D203">
+        <v>52</v>
+      </c>
+      <c r="E203">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="F203">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" t="s">
+        <v>234</v>
+      </c>
+      <c r="D204">
+        <v>51</v>
+      </c>
+      <c r="E204">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F204">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" t="s">
+        <v>235</v>
+      </c>
+      <c r="D205">
+        <v>56</v>
+      </c>
+      <c r="E205">
+        <v>1.1894</v>
+      </c>
+      <c r="F205">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>173</v>
+      </c>
+      <c r="C206" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206">
+        <v>53</v>
+      </c>
+      <c r="E206">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="F206">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" t="s">
+        <v>237</v>
+      </c>
+      <c r="D207">
+        <v>53</v>
+      </c>
+      <c r="E207">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="F207">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>173</v>
+      </c>
+      <c r="C208" t="s">
+        <v>239</v>
+      </c>
+      <c r="D208">
+        <v>53</v>
+      </c>
+      <c r="E208">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="F208">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>173</v>
+      </c>
+      <c r="C209" t="s">
+        <v>240</v>
+      </c>
+      <c r="D209">
+        <v>45</v>
+      </c>
+      <c r="E209">
+        <v>0.4753</v>
+      </c>
+      <c r="F209">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>173</v>
+      </c>
+      <c r="C210" t="s">
+        <v>241</v>
+      </c>
+      <c r="D210">
+        <v>57</v>
+      </c>
+      <c r="E210">
+        <v>1.0246</v>
+      </c>
+      <c r="F210">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>173</v>
+      </c>
+      <c r="C211" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211">
+        <v>55</v>
+      </c>
+      <c r="E211">
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="F211">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>173</v>
+      </c>
+      <c r="C212" t="s">
+        <v>243</v>
+      </c>
+      <c r="D212">
+        <v>55</v>
+      </c>
+      <c r="E212">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="F212">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>173</v>
+      </c>
+      <c r="C213" t="s">
+        <v>244</v>
+      </c>
+      <c r="D213">
+        <v>50</v>
+      </c>
+      <c r="E213">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="F213">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="H213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>173</v>
+      </c>
+      <c r="C214" t="s">
+        <v>245</v>
+      </c>
+      <c r="D214">
+        <v>50</v>
+      </c>
+      <c r="E214">
+        <v>0.9849</v>
+      </c>
+      <c r="F214">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H214" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>173</v>
+      </c>
+      <c r="C215" t="s">
+        <v>246</v>
+      </c>
+      <c r="D215">
+        <v>54</v>
+      </c>
+      <c r="E215">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="F215">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>173</v>
+      </c>
+      <c r="C216" t="s">
+        <v>247</v>
+      </c>
+      <c r="D216">
+        <v>55</v>
+      </c>
+      <c r="E216">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F216">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="H216" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C217" t="s">
+        <v>249</v>
+      </c>
+      <c r="D217">
+        <v>60</v>
+      </c>
+      <c r="E217">
+        <v>1.6203000000000001</v>
+      </c>
+      <c r="F217">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" t="s">
+        <v>250</v>
+      </c>
+      <c r="D218">
+        <v>57</v>
+      </c>
+      <c r="E218">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="F218">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>173</v>
+      </c>
+      <c r="C219" t="s">
+        <v>252</v>
+      </c>
+      <c r="D219">
+        <v>53</v>
+      </c>
+      <c r="E219">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="F219">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>173</v>
+      </c>
+      <c r="C220" t="s">
+        <v>253</v>
+      </c>
+      <c r="D220">
+        <v>50</v>
+      </c>
+      <c r="E220">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="F220">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>173</v>
+      </c>
+      <c r="C221" t="s">
+        <v>254</v>
+      </c>
+      <c r="D221">
+        <v>59</v>
+      </c>
+      <c r="E221">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="F221">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>173</v>
+      </c>
+      <c r="C222" t="s">
+        <v>255</v>
+      </c>
+      <c r="D222">
+        <v>62</v>
+      </c>
+      <c r="E222">
+        <v>1.4412</v>
+      </c>
+      <c r="F222">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>173</v>
+      </c>
+      <c r="C223" t="s">
+        <v>256</v>
+      </c>
+      <c r="D223">
+        <v>56</v>
+      </c>
+      <c r="E223">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F223">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>173</v>
+      </c>
+      <c r="C224" t="s">
+        <v>257</v>
+      </c>
+      <c r="D224">
+        <v>47</v>
+      </c>
+      <c r="E224">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F224">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>173</v>
+      </c>
+      <c r="C225" t="s">
+        <v>258</v>
+      </c>
+      <c r="D225">
+        <v>67</v>
+      </c>
+      <c r="E225">
+        <v>2.0042</v>
+      </c>
+      <c r="F225">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H225" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>173</v>
+      </c>
+      <c r="C226" t="s">
+        <v>259</v>
+      </c>
+      <c r="D226">
+        <v>53</v>
+      </c>
+      <c r="E226">
+        <v>0.8226</v>
+      </c>
+      <c r="F226">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>173</v>
+      </c>
+      <c r="C227" t="s">
+        <v>260</v>
+      </c>
+      <c r="D227">
+        <v>67</v>
+      </c>
+      <c r="E227">
+        <v>1.4403999999999999</v>
+      </c>
+      <c r="F227">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>173</v>
+      </c>
+      <c r="C228" t="s">
+        <v>261</v>
+      </c>
+      <c r="D228">
+        <v>54</v>
+      </c>
+      <c r="E228">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F228">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>173</v>
+      </c>
+      <c r="C229" t="s">
+        <v>262</v>
+      </c>
+      <c r="D229">
+        <v>48</v>
+      </c>
+      <c r="E229">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="F229">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>173</v>
+      </c>
+      <c r="C230" t="s">
+        <v>263</v>
+      </c>
+      <c r="D230">
+        <v>48</v>
+      </c>
+      <c r="E230">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F230">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>173</v>
+      </c>
+      <c r="C231" t="s">
+        <v>264</v>
+      </c>
+      <c r="D231">
+        <v>53</v>
+      </c>
+      <c r="E231">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F231">
+        <v>6.6E-3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>173</v>
+      </c>
+      <c r="C232" t="s">
+        <v>265</v>
+      </c>
+      <c r="D232">
+        <v>59</v>
+      </c>
+      <c r="E232">
+        <v>1.2222999999999999</v>
+      </c>
+      <c r="F232">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>173</v>
+      </c>
+      <c r="C233" t="s">
+        <v>266</v>
+      </c>
+      <c r="D233">
+        <v>59</v>
+      </c>
+      <c r="E233">
+        <v>1.2255</v>
+      </c>
+      <c r="F233">
+        <v>8.6E-3</v>
+      </c>
+      <c r="H233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>173</v>
+      </c>
+      <c r="C234" t="s">
+        <v>268</v>
+      </c>
+      <c r="D234">
+        <v>50</v>
+      </c>
+      <c r="E234">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="F234">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>173</v>
+      </c>
+      <c r="C235" t="s">
+        <v>269</v>
+      </c>
+      <c r="D235">
+        <v>53</v>
+      </c>
+      <c r="E235">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="F235">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="H235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>173</v>
+      </c>
+      <c r="C236" t="s">
+        <v>270</v>
+      </c>
+      <c r="D236">
+        <v>58</v>
+      </c>
+      <c r="E236">
+        <v>1.2292000000000001</v>
+      </c>
+      <c r="F236">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>173</v>
+      </c>
+      <c r="C237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D237">
+        <v>53</v>
+      </c>
+      <c r="E237">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="F237">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C238" t="s">
+        <v>272</v>
+      </c>
+      <c r="D238">
+        <v>59</v>
+      </c>
+      <c r="E238">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="F238">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>173</v>
+      </c>
+      <c r="C239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D239">
+        <v>55</v>
+      </c>
+      <c r="E239">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="F239">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>173</v>
+      </c>
+      <c r="C240" t="s">
+        <v>274</v>
+      </c>
+      <c r="D240">
+        <v>45</v>
+      </c>
+      <c r="E240">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="F240">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>173</v>
+      </c>
+      <c r="C241" t="s">
+        <v>275</v>
+      </c>
+      <c r="D241">
+        <v>47</v>
+      </c>
+      <c r="E241">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="F241">
+        <v>6.6E-3</v>
+      </c>
+      <c r="H241" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>173</v>
+      </c>
+      <c r="C242" t="s">
+        <v>276</v>
+      </c>
+      <c r="D242">
+        <v>64</v>
+      </c>
+      <c r="E242">
+        <v>2.1882999999999999</v>
+      </c>
+      <c r="F242">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H242" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>173</v>
+      </c>
+      <c r="C243" t="s">
+        <v>277</v>
+      </c>
+      <c r="D243">
+        <v>50</v>
+      </c>
+      <c r="E243">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="F243">
+        <v>1.01E-2</v>
+      </c>
+      <c r="H243" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>173</v>
+      </c>
+      <c r="C244" t="s">
+        <v>278</v>
+      </c>
+      <c r="D244">
+        <v>55</v>
+      </c>
+      <c r="E244">
+        <v>0.878</v>
+      </c>
+      <c r="F244">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H244" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>173</v>
+      </c>
+      <c r="C245" t="s">
+        <v>280</v>
+      </c>
+      <c r="D245">
+        <v>51</v>
+      </c>
+      <c r="E245">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="F245">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>173</v>
+      </c>
+      <c r="C246" t="s">
+        <v>281</v>
+      </c>
+      <c r="D246">
+        <v>41</v>
+      </c>
+      <c r="E246">
+        <v>0.3947</v>
+      </c>
+      <c r="F246">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>173</v>
+      </c>
+      <c r="C247" t="s">
+        <v>282</v>
+      </c>
+      <c r="D247">
+        <v>42</v>
+      </c>
+      <c r="E247">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F247">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H247" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248" t="s">
+        <v>283</v>
+      </c>
+      <c r="D248">
+        <v>50</v>
+      </c>
+      <c r="E248">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="F248">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249" t="s">
+        <v>284</v>
+      </c>
+      <c r="D249">
+        <v>54</v>
+      </c>
+      <c r="E249">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="F249">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>173</v>
+      </c>
+      <c r="C250" t="s">
+        <v>285</v>
+      </c>
+      <c r="D250">
+        <v>59</v>
+      </c>
+      <c r="E250">
+        <v>1.4661999999999999</v>
+      </c>
+      <c r="F250">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="H250" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>173</v>
+      </c>
+      <c r="C251" t="s">
+        <v>286</v>
+      </c>
+      <c r="D251">
+        <v>55</v>
+      </c>
+      <c r="E251">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="F251">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>173</v>
+      </c>
+      <c r="C252" t="s">
+        <v>287</v>
+      </c>
+      <c r="D252">
+        <v>54</v>
+      </c>
+      <c r="E252">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F252">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6f98d64a-07ba-4b39-8e6f-dd01000050b1" xsi:nil="true"/>
-    <Doc_x0020_Category xmlns="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3158,7 +6443,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077DB800C29E38A4082BE3FE3AD5BB76A" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7da20e6e965b49dba095c6e7f99ab6cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xmlns:ns3="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc" xmlns:ns4="84fa792b-db08-4e92-885f-28de3837c9fa" xmlns:ns5="6f98d64a-07ba-4b39-8e6f-dd01000050b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c449a09b25115935e60fbd831253710a" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
@@ -3421,14 +6706,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6f98d64a-07ba-4b39-8e6f-dd01000050b1" xsi:nil="true"/>
+    <Doc_x0020_Category xmlns="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7808CB-B311-4896-B5CF-6ED022DBBBFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C76A6DC-8931-4073-A06E-E26FC50B0F49}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C76A6DC-8931-4073-A06E-E26FC50B0F49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93E3E73-6EDC-4952-963D-AEFA783C3697}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93E3E73-6EDC-4952-963D-AEFA783C3697}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7808CB-B311-4896-B5CF-6ED022DBBBFD}"/>
 </file>